--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ricardo123456</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ricardojorgexavier2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>67b176705b46206614219f47a05aee7ae6a3edbe850bbbe214c536b989aea4d2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ricardo O mestre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Barcels</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>67b176705b46206614219f47a05aee7ae6a3edbe850bbbe214c536b989aea4d2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
